--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna5-Epha7.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efna5-Epha7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Efna5</t>
+  </si>
+  <si>
+    <t>Epha7</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Efna5</t>
-  </si>
-  <si>
-    <t>Epha7</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H2">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I2">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J2">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N2">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O2">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P2">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q2">
-        <v>0.132323017971</v>
+        <v>0.02992840072425</v>
       </c>
       <c r="R2">
-        <v>0.5292920718840001</v>
+        <v>0.119713602897</v>
       </c>
       <c r="S2">
-        <v>0.04096887231828294</v>
+        <v>0.009744535307089361</v>
       </c>
       <c r="T2">
-        <v>0.03230899009462473</v>
+        <v>0.007467221728860651</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H3">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I3">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J3">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.309653</v>
       </c>
       <c r="O3">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P3">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q3">
-        <v>0.039893834602</v>
+        <v>0.0130260179245</v>
       </c>
       <c r="R3">
-        <v>0.239363007612</v>
+        <v>0.07815610754699999</v>
       </c>
       <c r="S3">
-        <v>0.01235163345846777</v>
+        <v>0.004241205293446231</v>
       </c>
       <c r="T3">
-        <v>0.01461117113360162</v>
+        <v>0.004875043189705499</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0.1261995</v>
+      </c>
+      <c r="H4">
+        <v>0.252399</v>
+      </c>
+      <c r="I4">
+        <v>0.07923641825693001</v>
+      </c>
+      <c r="J4">
+        <v>0.06507622895681928</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.386502</v>
-      </c>
-      <c r="H4">
-        <v>0.773004</v>
-      </c>
-      <c r="I4">
-        <v>0.2023774294220003</v>
-      </c>
-      <c r="J4">
-        <v>0.1704859662986497</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N4">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O4">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P4">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q4">
-        <v>0.005149108478</v>
+        <v>0.006115207105</v>
       </c>
       <c r="R4">
-        <v>0.030894650868</v>
+        <v>0.03669124263</v>
       </c>
       <c r="S4">
-        <v>0.001594228812362811</v>
+        <v>0.001991080381938101</v>
       </c>
       <c r="T4">
-        <v>0.001885867977047391</v>
+        <v>0.002288642540157817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H5">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I5">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J5">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N5">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O5">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P5">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q5">
-        <v>0.432151944471</v>
+        <v>0.178501115982</v>
       </c>
       <c r="R5">
-        <v>1.728607777884</v>
+        <v>0.714004463928</v>
       </c>
       <c r="S5">
-        <v>0.1337996828262358</v>
+        <v>0.05811905698095204</v>
       </c>
       <c r="T5">
-        <v>0.1055174912678183</v>
+        <v>0.04453653986284187</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.386502</v>
+        <v>0.1261995</v>
       </c>
       <c r="H6">
-        <v>0.773004</v>
+        <v>0.252399</v>
       </c>
       <c r="I6">
-        <v>0.2023774294220003</v>
+        <v>0.07923641825693001</v>
       </c>
       <c r="J6">
-        <v>0.1704859662986497</v>
+        <v>0.06507622895681928</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N6">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O6">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P6">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q6">
-        <v>0.044129381186</v>
+        <v>0.015788146381</v>
       </c>
       <c r="R6">
-        <v>0.264776287116</v>
+        <v>0.09472887828599999</v>
       </c>
       <c r="S6">
-        <v>0.01366301200665102</v>
+        <v>0.005140540293504275</v>
       </c>
       <c r="T6">
-        <v>0.01616244582555773</v>
+        <v>0.005908781635253428</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H7">
         <v>2.079365</v>
       </c>
       <c r="I7">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J7">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N7">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O7">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P7">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q7">
-        <v>0.2372974803608333</v>
+        <v>0.1643748429325</v>
       </c>
       <c r="R7">
-        <v>1.423784882165</v>
+        <v>0.986249057595</v>
       </c>
       <c r="S7">
-        <v>0.07347028750873767</v>
+        <v>0.05351961420561855</v>
       </c>
       <c r="T7">
-        <v>0.08691052463908251</v>
+        <v>0.06151799139549811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
         <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J8">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.309653</v>
       </c>
       <c r="O8">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P8">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q8">
-        <v>0.07154240114944443</v>
+        <v>0.07154240114944445</v>
       </c>
       <c r="R8">
         <v>0.6438816103449999</v>
       </c>
       <c r="S8">
-        <v>0.02215042811884271</v>
+        <v>0.02329384254033448</v>
       </c>
       <c r="T8">
-        <v>0.03930375245693621</v>
+        <v>0.04016257664317995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
         <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J9">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N9">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O9">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P9">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q9">
-        <v>0.009233997883888886</v>
+        <v>0.03358636556111112</v>
       </c>
       <c r="R9">
-        <v>0.08310598095499999</v>
+        <v>0.30227729005</v>
       </c>
       <c r="S9">
-        <v>0.002858962001420256</v>
+        <v>0.0109355500837661</v>
       </c>
       <c r="T9">
-        <v>0.00507294640919471</v>
+        <v>0.01885476248129057</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H10">
         <v>2.079365</v>
       </c>
       <c r="I10">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J10">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N10">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O10">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P10">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q10">
-        <v>0.7749866132774998</v>
+        <v>0.9803762377133335</v>
       </c>
       <c r="R10">
-        <v>4.649919679665</v>
+        <v>5.882257426280001</v>
       </c>
       <c r="S10">
-        <v>0.2399456125970678</v>
+        <v>0.3192055249009105</v>
       </c>
       <c r="T10">
-        <v>0.283839900220577</v>
+        <v>0.3669100202928625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6931216666666665</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H11">
         <v>2.079365</v>
       </c>
       <c r="I11">
-        <v>0.3629274393837355</v>
+        <v>0.4351877644756155</v>
       </c>
       <c r="J11">
-        <v>0.4586037734767113</v>
+        <v>0.5361242826825642</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N11">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O11">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P11">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q11">
-        <v>0.07913809045388888</v>
+        <v>0.08671275506777779</v>
       </c>
       <c r="R11">
-        <v>0.7122428140849999</v>
+        <v>0.78041479561</v>
       </c>
       <c r="S11">
-        <v>0.02450214915766705</v>
+        <v>0.02823323274498583</v>
       </c>
       <c r="T11">
-        <v>0.04347664975092088</v>
+        <v>0.04867893186973302</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H12">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I12">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J12">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.3423605</v>
+        <v>0.2371515</v>
       </c>
       <c r="N12">
-        <v>0.684721</v>
+        <v>0.474303</v>
       </c>
       <c r="O12">
-        <v>0.2024379518768077</v>
+        <v>0.1229805122625808</v>
       </c>
       <c r="P12">
-        <v>0.1895111415682583</v>
+        <v>0.1147457658281868</v>
       </c>
       <c r="Q12">
-        <v>0.27690134358025</v>
+        <v>0.18340692273675</v>
       </c>
       <c r="R12">
-        <v>1.107605374321</v>
+        <v>0.733627690947</v>
       </c>
       <c r="S12">
-        <v>0.08573214217640117</v>
+        <v>0.05971636274987287</v>
       </c>
       <c r="T12">
-        <v>0.06761032890651932</v>
+        <v>0.045760552703828</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H13">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I13">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J13">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>0.309653</v>
       </c>
       <c r="O13">
-        <v>0.0610326630481701</v>
+        <v>0.05352595923371758</v>
       </c>
       <c r="P13">
-        <v>0.08570307252156119</v>
+        <v>0.07491281022046142</v>
       </c>
       <c r="Q13">
-        <v>0.08348250040883333</v>
+        <v>0.07982591134949998</v>
       </c>
       <c r="R13">
-        <v>0.500895002453</v>
+        <v>0.4789554680969999</v>
       </c>
       <c r="S13">
-        <v>0.02584723317609084</v>
+        <v>0.02599091139993687</v>
       </c>
       <c r="T13">
-        <v>0.03057557921677651</v>
+        <v>0.02987519038757598</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H14">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I14">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J14">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.01332233333333333</v>
+        <v>0.04845666666666667</v>
       </c>
       <c r="N14">
-        <v>0.039967</v>
+        <v>0.14537</v>
       </c>
       <c r="O14">
-        <v>0.007877503024502313</v>
+        <v>0.02512834913211087</v>
       </c>
       <c r="P14">
-        <v>0.01106171972972726</v>
+        <v>0.03516864109744933</v>
       </c>
       <c r="Q14">
-        <v>0.01077510986116667</v>
+        <v>0.037475150355</v>
       </c>
       <c r="R14">
-        <v>0.06465065916700001</v>
+        <v>0.22485090213</v>
       </c>
       <c r="S14">
-        <v>0.003336109672274523</v>
+        <v>0.01220171866640666</v>
       </c>
       <c r="T14">
-        <v>0.003946398628648541</v>
+        <v>0.01402523607600095</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H15">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I15">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J15">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.1181105</v>
+        <v>1.414436</v>
       </c>
       <c r="N15">
-        <v>2.236221</v>
+        <v>2.828872</v>
       </c>
       <c r="O15">
-        <v>0.6611393533773707</v>
+        <v>0.7334891992782493</v>
       </c>
       <c r="P15">
-        <v>0.6189218594272882</v>
+        <v>0.6843749334706176</v>
       </c>
       <c r="Q15">
-        <v>0.90432833145525</v>
+        <v>1.093888734282</v>
       </c>
       <c r="R15">
-        <v>3.617313325821</v>
+        <v>4.375554937128</v>
       </c>
       <c r="S15">
-        <v>0.2799914369646235</v>
+        <v>0.3561646173963867</v>
       </c>
       <c r="T15">
-        <v>0.2208076535080208</v>
+        <v>0.2729283733149133</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,356 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8088005</v>
+        <v>0.7733745</v>
       </c>
       <c r="H16">
-        <v>1.617601</v>
+        <v>1.546749</v>
       </c>
       <c r="I16">
-        <v>0.4234983676804482</v>
+        <v>0.4855758172674545</v>
       </c>
       <c r="J16">
-        <v>0.3567617626437407</v>
+        <v>0.3987994883606166</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1141763333333333</v>
+        <v>0.1251046666666667</v>
       </c>
       <c r="N16">
-        <v>0.342529</v>
+        <v>0.375314</v>
       </c>
       <c r="O16">
-        <v>0.06751252867314916</v>
+        <v>0.06487598009334153</v>
       </c>
       <c r="P16">
-        <v>0.0948022067531651</v>
+        <v>0.09079784938328471</v>
       </c>
       <c r="Q16">
-        <v>0.09234587548816667</v>
+        <v>0.096752759031</v>
       </c>
       <c r="R16">
-        <v>0.5540752529290001</v>
+        <v>0.5805165541859999</v>
       </c>
       <c r="S16">
-        <v>0.02859144569105812</v>
+        <v>0.03150220705485142</v>
       </c>
       <c r="T16">
-        <v>0.03382180238377552</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H17">
-        <v>0.064151</v>
-      </c>
-      <c r="I17">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J17">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.5</v>
-      </c>
-      <c r="M17">
-        <v>0.3423605</v>
-      </c>
-      <c r="N17">
-        <v>0.684721</v>
-      </c>
-      <c r="O17">
-        <v>0.2024379518768077</v>
-      </c>
-      <c r="P17">
-        <v>0.1895111415682583</v>
-      </c>
-      <c r="Q17">
-        <v>0.007320922811833333</v>
-      </c>
-      <c r="R17">
-        <v>0.043925536871</v>
-      </c>
-      <c r="S17">
-        <v>0.00226664987338588</v>
-      </c>
-      <c r="T17">
-        <v>0.002681297928031771</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H18">
-        <v>0.064151</v>
-      </c>
-      <c r="I18">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J18">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.1032176666666667</v>
-      </c>
-      <c r="N18">
-        <v>0.309653</v>
-      </c>
-      <c r="O18">
-        <v>0.0610326630481701</v>
-      </c>
-      <c r="P18">
-        <v>0.08570307252156119</v>
-      </c>
-      <c r="Q18">
-        <v>0.002207172178111111</v>
-      </c>
-      <c r="R18">
-        <v>0.019864549603</v>
-      </c>
-      <c r="S18">
-        <v>0.0006833682947687774</v>
-      </c>
-      <c r="T18">
-        <v>0.001212569714246857</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H19">
-        <v>0.064151</v>
-      </c>
-      <c r="I19">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J19">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.01332233333333333</v>
-      </c>
-      <c r="N19">
-        <v>0.039967</v>
-      </c>
-      <c r="O19">
-        <v>0.007877503024502313</v>
-      </c>
-      <c r="P19">
-        <v>0.01106171972972726</v>
-      </c>
-      <c r="Q19">
-        <v>0.0002848803352222222</v>
-      </c>
-      <c r="R19">
-        <v>0.002563923017</v>
-      </c>
-      <c r="S19">
-        <v>8.820253844472272E-05</v>
-      </c>
-      <c r="T19">
-        <v>0.0001565067148366207</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H20">
-        <v>0.064151</v>
-      </c>
-      <c r="I20">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J20">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.1181105</v>
-      </c>
-      <c r="N20">
-        <v>2.236221</v>
-      </c>
-      <c r="O20">
-        <v>0.6611393533773707</v>
-      </c>
-      <c r="P20">
-        <v>0.6189218594272882</v>
-      </c>
-      <c r="Q20">
-        <v>0.0239093022285</v>
-      </c>
-      <c r="R20">
-        <v>0.143455813371</v>
-      </c>
-      <c r="S20">
-        <v>0.007402620989443652</v>
-      </c>
-      <c r="T20">
-        <v>0.008756814430872041</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.02138366666666667</v>
-      </c>
-      <c r="H21">
-        <v>0.064151</v>
-      </c>
-      <c r="I21">
-        <v>0.01119676351381601</v>
-      </c>
-      <c r="J21">
-        <v>0.01414849758089826</v>
-      </c>
-      <c r="K21">
-        <v>2</v>
-      </c>
-      <c r="L21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M21">
-        <v>0.1141763333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.342529</v>
-      </c>
-      <c r="O21">
-        <v>0.06751252867314916</v>
-      </c>
-      <c r="P21">
-        <v>0.0948022067531651</v>
-      </c>
-      <c r="Q21">
-        <v>0.002441508653222222</v>
-      </c>
-      <c r="R21">
-        <v>0.021973577879</v>
-      </c>
-      <c r="S21">
-        <v>0.0007559218177729735</v>
-      </c>
-      <c r="T21">
-        <v>0.001341308792910973</v>
+        <v>0.03621013587829826</v>
       </c>
     </row>
   </sheetData>
